--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2928.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2928.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.034575938383617</v>
+        <v>1.688358545303345</v>
       </c>
       <c r="B1">
-        <v>1.922933652724774</v>
+        <v>2.134612798690796</v>
       </c>
       <c r="C1">
-        <v>7.56888571378737</v>
+        <v>5.381175518035889</v>
       </c>
       <c r="D1">
-        <v>3.070294509318983</v>
+        <v>1.352210521697998</v>
       </c>
       <c r="E1">
-        <v>1.40565700804106</v>
+        <v>0.7536847591400146</v>
       </c>
     </row>
   </sheetData>
